--- a/logsabha/Logsabha-App Requirements.xlsx
+++ b/logsabha/Logsabha-App Requirements.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\logsabha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikram\Workspace\project-proposals\logsabha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1105E6E-85C1-4582-B617-DFCA8F090C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope of Work" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Functional Points'!$A$1:$C$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1178,7 +1190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1252,7 +1264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1312,130 +1324,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,9 +1546,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1495,9 +1586,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,7 +1623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,7 +1658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1740,488 +1831,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
     <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="26"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29" t="s">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="13" t="s">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29" t="s">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="13" t="s">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="13" t="s">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="13" t="s">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29" t="s">
+    <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29" t="s">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29" t="s">
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="13" t="s">
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="13" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="29"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="13" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-    </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="29"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-    </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="13" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="29"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-    </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="13" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="29"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="13" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="29"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-    </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="13" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="29"/>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="13" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="29"/>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-    </row>
-    <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="13" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="29"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-    </row>
-    <row r="51" spans="1:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="13" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="29"/>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="29"/>
-    </row>
-    <row r="53" spans="1:3" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="13" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-    </row>
-    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="13" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="29"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-    </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C57" s="29"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-    </row>
-    <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" customWidth="1"/>
-    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2234,7 +2391,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -2247,7 +2404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
@@ -2260,9 +2417,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2275,9 +2432,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,9 +2445,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2301,9 +2458,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2314,9 +2471,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -2327,9 +2484,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2340,9 +2497,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
@@ -2353,9 +2510,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2366,9 +2523,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
@@ -2379,9 +2536,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2394,9 +2551,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2407,9 +2564,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2420,18 +2577,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2444,9 +2601,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
@@ -2457,9 +2614,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
@@ -2470,9 +2627,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
@@ -2483,9 +2640,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
@@ -2496,9 +2653,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
@@ -2509,9 +2666,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="3" t="s">
         <v>65</v>
       </c>
@@ -2522,9 +2679,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2692,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
@@ -2548,7 +2705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
@@ -2561,9 +2718,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2576,9 +2733,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
@@ -2589,16 +2746,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2611,9 +2768,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="3" t="s">
         <v>79</v>
       </c>
@@ -2624,9 +2781,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="3" t="s">
         <v>80</v>
       </c>
@@ -2637,9 +2794,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
@@ -2650,9 +2807,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="3" t="s">
         <v>82</v>
       </c>
@@ -2663,9 +2820,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="3" t="s">
         <v>83</v>
       </c>
@@ -2676,9 +2833,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="3" t="s">
         <v>84</v>
       </c>
@@ -2687,9 +2844,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2700,11 +2857,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
@@ -2715,7 +2872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +2889,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
@@ -2745,7 +2902,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>23</v>
@@ -2760,11 +2917,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2777,9 +2934,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="3" t="s">
         <v>93</v>
       </c>
@@ -2790,9 +2947,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="3" t="s">
         <v>94</v>
       </c>
@@ -2803,9 +2960,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="21"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="3" t="s">
         <v>95</v>
       </c>
@@ -2816,9 +2973,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
@@ -2829,9 +2986,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="3" t="s">
         <v>97</v>
       </c>
@@ -2842,9 +2999,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
@@ -2855,9 +3012,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
@@ -2868,9 +3025,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="3" t="s">
         <v>100</v>
       </c>
@@ -2879,7 +3036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>26</v>
@@ -2894,7 +3051,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
@@ -2911,11 +3068,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2928,9 +3085,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="3" t="s">
         <v>108</v>
       </c>
@@ -2941,9 +3098,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="3" t="s">
         <v>109</v>
       </c>
@@ -2954,9 +3111,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="3" t="s">
         <v>110</v>
       </c>
@@ -2967,9 +3124,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
@@ -2980,9 +3137,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="3" t="s">
         <v>112</v>
       </c>
@@ -2993,9 +3150,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
@@ -3006,9 +3163,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="3" t="s">
         <v>114</v>
       </c>
@@ -3019,7 +3176,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>32</v>
       </c>
@@ -3034,7 +3191,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3" t="s">
@@ -3047,7 +3204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>35</v>
       </c>
@@ -3073,714 +3230,781 @@
     <mergeCell ref="B43:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.5" customWidth="1"/>
-    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:3" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:3" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="225" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:3" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="16" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="29"/>
+    <col min="1" max="1" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="33">
+      <c r="B3" s="15"/>
+      <c r="C3" s="17">
         <v>7</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="33">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="46">
         <v>1</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="46">
         <v>3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="46">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="21">
         <v>3</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="17">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="46">
         <v>4</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="17">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="33">
+      <c r="C15" s="46"/>
+      <c r="D15" s="17">
         <v>0.5</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="17">
         <v>0.5</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33">
+      <c r="C16" s="46"/>
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="17">
         <v>1</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="17">
         <v>2</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="17">
         <v>4</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="17">
         <v>3</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="17">
         <v>0.5</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="33"/>
-      <c r="E23" s="33"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="17">
         <v>2</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="17">
         <v>0</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="17">
         <v>2</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="38" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="17">
         <v>0</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="17">
         <v>2</v>
       </c>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="17">
         <v>1</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="17">
         <v>2</v>
       </c>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="17">
         <v>3</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="17">
         <v>3</v>
       </c>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="17">
         <v>3</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="17">
         <v>4</v>
       </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="17">
         <v>4</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="17">
         <v>0</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="17">
         <v>3</v>
       </c>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="17">
         <v>5</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="17">
         <v>0</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="22">
         <f>SUM(C3:C31)</f>
         <v>53</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="22">
         <f>SUM(D3:D31)</f>
         <v>22</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="22">
         <f>SUM(E7:E31)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="38" t="s">
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="17">
         <v>7</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="17">
         <v>7</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="38" t="s">
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="17">
         <v>2</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="22">
         <f>SUM(C32:C34)</f>
         <v>62</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="22">
         <f>SUM(D32:D34)</f>
         <v>31</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="22">
         <f>SUM(E32:E34)</f>
         <v>48</v>
       </c>
+      <c r="F35" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F25:F31"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="F32:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>